--- a/QuickRMS.Site.WebUI/Files/templates/设备曲线库.xlsx
+++ b/QuickRMS.Site.WebUI/Files/templates/设备曲线库.xlsx
@@ -401,15 +401,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>88888888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>曲线1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导入结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8888888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,12 +812,12 @@
   <dimension ref="A1:DV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="9.625" bestFit="1" customWidth="1"/>
@@ -1203,7 +1203,7 @@
         <v>120</v>
       </c>
       <c r="DV1" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:126">
@@ -1211,13 +1211,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2">
         <v>80</v>
